--- a/WorldmeterUS.xlsx
+++ b/WorldmeterUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeshwanthsomu/Desktop/Random Stuff/Daily Cases_2/Coronavirus-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334759C-188F-BA45-A795-2623C5F243E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F4CA0-6148-794D-BA8E-A25E7BC9E140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{B18CBBCC-F5BE-8A47-86E2-B4B1A9F27A3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>State</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>American Samoa</t>
+  </si>
+  <si>
+    <t>RecoveredRatio</t>
   </si>
 </sst>
 </file>
@@ -279,11 +282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,7 +606,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G2" sqref="G2:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -633,7 +637,9 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="24">
       <c r="A2" s="3" t="s">
@@ -654,6 +660,10 @@
       <c r="F2" s="2">
         <v>4903185</v>
       </c>
+      <c r="G2" s="4">
+        <f>D2/B2</f>
+        <v>0.426892171214244</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="3" t="s">
@@ -674,6 +684,10 @@
       <c r="F3" s="2">
         <v>731545</v>
       </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G57" si="0">D3/B3</f>
+        <v>0.55966686496133256</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="24">
       <c r="A4" s="3" t="s">
@@ -694,6 +708,10 @@
       <c r="F4" s="2">
         <v>55465</v>
       </c>
+      <c r="G4" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="A5" s="3" t="s">
@@ -714,6 +732,10 @@
       <c r="F5" s="2">
         <v>7278717</v>
       </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1623436041929025</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="3" t="s">
@@ -734,6 +756,10 @@
       <c r="F6" s="2">
         <v>3017804</v>
       </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90053210439819342</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="A7" s="3" t="s">
@@ -754,6 +780,10 @@
       <c r="F7" s="2">
         <v>39512223</v>
       </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51138262924327127</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="3" t="s">
@@ -774,6 +804,10 @@
       <c r="F8" s="2">
         <v>5758736</v>
       </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4446603536044666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="A9" s="3" t="s">
@@ -794,6 +828,10 @@
       <c r="F9" s="2">
         <v>3565287</v>
       </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72686416110606034</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="A10" s="3" t="s">
@@ -814,6 +852,10 @@
       <c r="F10" s="2">
         <v>973764</v>
       </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50868521395283151</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24">
       <c r="A11" s="3" t="s">
@@ -834,6 +876,10 @@
       <c r="F11" s="2">
         <v>705749</v>
       </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79251240414975188</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="A12" s="3" t="s">
@@ -854,6 +900,10 @@
       <c r="F12" s="2">
         <v>21477737</v>
       </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50737446246051765</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24">
       <c r="A13" s="3" t="s">
@@ -874,6 +924,10 @@
       <c r="F13" s="2">
         <v>10617423</v>
       </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34242006657892698</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="24">
       <c r="A14" s="3" t="s">
@@ -892,6 +946,10 @@
         <v>681</v>
       </c>
       <c r="F14" s="2"/>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72105464272067255</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="3" t="s">
@@ -912,6 +970,10 @@
       <c r="F15" s="2">
         <v>1415872</v>
       </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81583880037488288</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="24">
       <c r="A16" s="3" t="s">
@@ -932,8 +994,12 @@
       <c r="F16" s="2">
         <v>1787065</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="24">
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52156309707942861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -952,8 +1018,12 @@
       <c r="F17" s="2">
         <v>12671821</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="24">
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69338766925200468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -972,8 +1042,12 @@
       <c r="F18" s="2">
         <v>6732219</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="24">
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77385613603311332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -992,8 +1066,12 @@
       <c r="F19" s="2">
         <v>3155070</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24">
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7732549976780102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1012,8 +1090,12 @@
       <c r="F20" s="2">
         <v>2913314</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="24">
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75392392874337988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1032,8 +1114,12 @@
       <c r="F21" s="2">
         <v>4467673</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16691683765509455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1052,8 +1138,12 @@
       <c r="F22" s="2">
         <v>4648794</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="24">
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91603384553222333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1072,8 +1162,12 @@
       <c r="F23" s="2">
         <v>1344212</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="24">
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86646131545569849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1092,8 +1186,12 @@
       <c r="F24" s="2">
         <v>6045680</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="24">
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0122554796134813E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1112,8 +1210,12 @@
       <c r="F25" s="2">
         <v>6892503</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="24">
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84305690382150034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1132,8 +1234,12 @@
       <c r="F26" s="2">
         <v>9986857</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="24">
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70446871615547424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1152,8 +1258,12 @@
       <c r="F27" s="2">
         <v>5639632</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="24">
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89715485523857219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -1172,8 +1282,12 @@
       <c r="F28" s="2">
         <v>2976149</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24">
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89301210094737682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -1192,8 +1306,12 @@
       <c r="F29" s="2">
         <v>6137428</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="24">
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1688207783895439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1212,8 +1330,12 @@
       <c r="F30" s="2">
         <v>1068778</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="24">
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.65575674752306112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -1232,8 +1354,12 @@
       <c r="F31" s="2">
         <v>1934408</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="24">
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7240153115652519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1252,8 +1378,12 @@
       <c r="F32" s="2">
         <v>3080156</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="24">
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72236297198538368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1272,8 +1402,12 @@
       <c r="F33" s="2">
         <v>1359711</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="24">
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89184499710815501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -1292,8 +1426,12 @@
       <c r="F34" s="2">
         <v>8882190</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="24">
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81595645235914527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1312,8 +1450,12 @@
       <c r="F35" s="2">
         <v>2096829</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="24">
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56665682317813437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1332,8 +1474,12 @@
       <c r="F36" s="2">
         <v>19453561</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="24">
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7984100500539798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
@@ -1352,8 +1498,12 @@
       <c r="F37" s="2">
         <v>10488084</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="24">
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84793283554640086</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -1372,8 +1522,12 @@
       <c r="F38" s="2">
         <v>762062</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="24">
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82789808917197449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -1390,8 +1544,12 @@
         <v>42</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="24">
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39726027397260272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="24">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -1410,8 +1568,12 @@
       <c r="F40" s="2">
         <v>11689100</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="24">
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8620965154536705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -1430,8 +1592,12 @@
       <c r="F41" s="2">
         <v>3956971</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="24">
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84985271088625336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -1450,8 +1616,12 @@
       <c r="F42" s="2">
         <v>4217737</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="24">
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16542996836353177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -1470,8 +1640,12 @@
       <c r="F43" s="2">
         <v>12801989</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="24">
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79742868526370247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="24">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -1490,8 +1664,12 @@
       <c r="F44" s="2">
         <v>3386941</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="24">
+      <c r="G44" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="24">
       <c r="A45" s="3" t="s">
         <v>40</v>
       </c>
@@ -1510,8 +1688,12 @@
       <c r="F45" s="2">
         <v>1059361</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="24">
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3555591003349814E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="24">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -1530,8 +1712,12 @@
       <c r="F46" s="2">
         <v>5148714</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="24">
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48801308862529852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="24">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -1550,8 +1736,12 @@
       <c r="F47" s="2">
         <v>884659</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="24">
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81505446801539849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="24">
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
@@ -1570,8 +1760,12 @@
       <c r="F48" s="2">
         <v>6829174</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="24">
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91647532428805722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24">
       <c r="A49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1784,12 @@
       <c r="F49" s="2">
         <v>28995881</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="24">
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86728741069045356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="24">
       <c r="A50" s="3" t="s">
         <v>31</v>
       </c>
@@ -1610,8 +1808,12 @@
       <c r="F50" s="2">
         <v>3205958</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="24">
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7394161148187276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="24">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1630,8 +1832,12 @@
       <c r="F51" s="2">
         <v>623989</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="24">
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90868347338935573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="24">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
@@ -1648,8 +1854,12 @@
         <v>42</v>
       </c>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="24">
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9532780708364732</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="24">
       <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
@@ -1668,8 +1878,12 @@
       <c r="F53" s="2">
         <v>8535519</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="24">
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11752156449595048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="24">
       <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
@@ -1688,8 +1902,12 @@
       <c r="F54" s="2">
         <v>7614893</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="24">
+      <c r="G54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47060607701890267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="24">
       <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
@@ -1708,8 +1926,12 @@
       <c r="F55" s="2">
         <v>1792147</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="24">
+      <c r="G55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72059177291315857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="24">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
@@ -1728,8 +1950,12 @@
       <c r="F56" s="2">
         <v>5822434</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="24">
+      <c r="G56" s="4">
+        <f t="shared" si="0"/>
+        <v>0.80658510662354987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="24">
       <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
@@ -1747,6 +1973,10 @@
       </c>
       <c r="F57" s="2">
         <v>578759</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79335793357933582</v>
       </c>
     </row>
   </sheetData>

--- a/WorldmeterUS.xlsx
+++ b/WorldmeterUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeshwanthsomu/Desktop/Random Stuff/Daily Cases_2/Coronavirus-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F4CA0-6148-794D-BA8E-A25E7BC9E140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3FC49-49FF-7244-8E0F-321CA4C04227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{B18CBBCC-F5BE-8A47-86E2-B4B1A9F27A3E}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G57"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -945,7 +945,9 @@
       <c r="E14" s="2">
         <v>681</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>165768</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>0.72105464272067255</v>
@@ -1543,7 +1545,9 @@
       <c r="E39" s="2">
         <v>42</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2">
+        <v>56882</v>
+      </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>0.39726027397260272</v>
@@ -1853,7 +1857,9 @@
       <c r="E52" s="2">
         <v>42</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>106977</v>
+      </c>
       <c r="G52" s="4">
         <f t="shared" si="0"/>
         <v>0.9532780708364732</v>
